--- a/Bank/中医内科学/胃/Bank_胃痛.xlsx
+++ b/Bank/中医内科学/胃/Bank_胃痛.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>胃痛病名在古代经常与下列哪种疾病相混淆</t>
   </si>
@@ -361,12 +372,18 @@
   </si>
   <si>
     <t>诊断：胃痛。辨证：胃阴亏虚，胃气阻滞，兼胃寒。分析：素患“胃窦炎”，时发胃痛，此次又患胃胀痛，故诊断为胃痛。病人素患胃痛，病程较久，口干，无唾液已2年，便干，舌红无苔而干，裂纹多，脉细弱，皆为胃阴亏虚之证。病人年髙体弱，阳气潜在不足，因天气冷而致脘腹受凉，寒邪客胃，寒凝气滞，寒凝则胃失温养，气滞不通则痛，故胃皖冷痛胀痛。曾服六味木香丸、藿香正气丸而症不减，是因此类药物辛温性燥，虽可祛寒，但可伤阴，所以症不减.且又增隐痛。久病脾胃受损，又服香燥理气之品，耗伤胃阴，而致胃阴亏虚，胃失濡养，故胃皖隐痛。胃阴亏虚，津液不足，故现口干，无唾液。胃阴亏虚，肠燥津枯，无水行舟，故便干。情志不遂，肝郁气滞，横逆犯胃，肝胃气滞，不通则痛，故胃皖胀痛，生气更痛更胀。胃寒，故不想喝水。年高体弱，故大便日行2~3次。病机主要有：胃阴亏虚，胃失濡养；肝胃气滞，不通则痛；寒邪客胃，寒疑气滞，不通则痛。寒邪客胃，寒凝气滞为标，胃阴亏虚，胃失濡养为本。治法：养阴益胃，理气止痛，兼温胃散寒。方药：沙参麦冬汤合百合汤加减。麦冬10g沙参10g天花粉10g石斛10g白芍10g焦山楂10g百合5g青木香10g延胡索10g葛根10g桂枝10g台乌药10g甘草5g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,15 +695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -702,17 +719,20 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -728,17 +748,20 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -754,17 +777,20 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -780,17 +806,20 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -806,17 +835,20 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -832,17 +864,20 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -858,17 +893,20 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -884,17 +922,20 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -910,17 +951,20 @@
       <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -936,17 +980,20 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>36</v>
       </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -962,17 +1009,20 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -988,17 +1038,20 @@
       <c r="F12" t="s">
         <v>59</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -1014,17 +1067,20 @@
       <c r="F13" t="s">
         <v>59</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -1040,17 +1096,20 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
         <v>36</v>
       </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>66</v>
       </c>
@@ -1066,17 +1125,20 @@
       <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -1092,20 +1154,23 @@
       <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
         <v>78</v>
       </c>
-      <c r="J16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>79</v>
       </c>
@@ -1121,20 +1186,23 @@
       <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -1150,20 +1218,23 @@
       <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>92</v>
       </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -1179,20 +1250,23 @@
       <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -1208,87 +1282,105 @@
       <c r="F20" t="s">
         <v>101</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>78</v>
       </c>
-      <c r="J20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>103</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>107</v>
       </c>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>108</v>
       </c>
-      <c r="J22" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>111</v>
       </c>
-      <c r="J23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>112</v>
       </c>
-      <c r="J24" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>113</v>
-      </c>
-      <c r="J25" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
